--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -430,7 +430,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D2">
         <v>108000</v>

--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,10 +416,10 @@
         <v>precio</v>
       </c>
       <c r="E1" t="str">
+        <v>costo</v>
+      </c>
+      <c r="F1" t="str">
         <v>fecha_registro</v>
-      </c>
-      <c r="F1" t="str">
-        <v>costo</v>
       </c>
     </row>
     <row r="2">
@@ -430,61 +430,21 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>108000</v>
       </c>
-      <c r="E2" t="str">
-        <v>24/1/2026</v>
-      </c>
-      <c r="F2">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Aguardiente Amarillo Media</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Aguardientes</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
+      <c r="E2">
         <v>78000</v>
       </c>
-      <c r="E3" t="str">
-        <v>24/1/2026</v>
-      </c>
-      <c r="F3">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Cerveza Corona</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Cervezas</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="E4" t="str">
-        <v>26/1/2026</v>
-      </c>
-      <c r="F4">
-        <v>5000</v>
+      <c r="F2" t="str">
+        <v>31/1/2026</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,10 +416,10 @@
         <v>precio</v>
       </c>
       <c r="E1" t="str">
+        <v>fecha_registro</v>
+      </c>
+      <c r="F1" t="str">
         <v>costo</v>
-      </c>
-      <c r="F1" t="str">
-        <v>fecha_registro</v>
       </c>
     </row>
     <row r="2">
@@ -430,21 +430,41 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D2">
         <v>108000</v>
       </c>
-      <c r="E2">
-        <v>78000</v>
-      </c>
-      <c r="F2" t="str">
+      <c r="E2" t="str">
         <v>31/1/2026</v>
+      </c>
+      <c r="F2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Cerveza Corona</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C3">
+        <v>996</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="str">
+        <v>31/1/2026</v>
+      </c>
+      <c r="F3">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D2">
         <v>108000</v>
@@ -450,7 +450,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C3">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -460,11 +460,31 @@
       </c>
       <c r="F3">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Ron viejo de caldas (5años) botella</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>132000</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3/2/2026</v>
+      </c>
+      <c r="F4">
+        <v>78000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -430,7 +430,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D2">
         <v>108000</v>
@@ -450,7 +450,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C3">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -470,7 +470,7 @@
         <v>Rones</v>
       </c>
       <c r="C4">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D4">
         <v>132000</v>

--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,67 +424,87 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Aguardiente Amarillo Botella</v>
+        <v>Cerveza Corona</v>
       </c>
       <c r="B2" t="str">
-        <v>Aguardientes</v>
+        <v>Cervezas</v>
       </c>
       <c r="C2">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D2">
-        <v>108000</v>
+        <v>10000</v>
       </c>
       <c r="E2" t="str">
         <v>31/1/2026</v>
       </c>
       <c r="F2">
-        <v>45000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cerveza Corona</v>
+        <v>Ron viejo de caldas (5años) botella</v>
       </c>
       <c r="B3" t="str">
-        <v>Cervezas</v>
+        <v>Rones</v>
       </c>
       <c r="C3">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>132000</v>
       </c>
       <c r="E3" t="str">
-        <v>31/1/2026</v>
+        <v>3/2/2026</v>
       </c>
       <c r="F3">
-        <v>5000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ron viejo de caldas (5años) botella</v>
+        <v>Aguardiente Amarillo Media</v>
       </c>
       <c r="B4" t="str">
-        <v>Rones</v>
+        <v>Aguardientes</v>
       </c>
       <c r="C4">
-        <v>996</v>
+        <v>119</v>
       </c>
       <c r="D4">
-        <v>132000</v>
+        <v>70000</v>
       </c>
       <c r="E4" t="str">
-        <v>3/2/2026</v>
+        <v>6/2/2026</v>
       </c>
       <c r="F4">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Aguardiente Amarillo Botella</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>108000</v>
+      </c>
+      <c r="E5" t="str">
+        <v>7/2/2026</v>
+      </c>
+      <c r="F5">
         <v>78000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,87 +424,667 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Cerveza Corona</v>
+        <v>Aguardiente Amarillo Caja</v>
       </c>
       <c r="B2" t="str">
-        <v>Cervezas</v>
+        <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>982</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>122000</v>
       </c>
       <c r="E2" t="str">
-        <v>31/1/2026</v>
+        <v>10/2/2026</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ron viejo de caldas (5años) botella</v>
+        <v>Aguardiente Amarillo Media</v>
       </c>
       <c r="B3" t="str">
-        <v>Rones</v>
+        <v>Aguardientes</v>
       </c>
       <c r="C3">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>132000</v>
+        <v>70000</v>
       </c>
       <c r="E3" t="str">
-        <v>3/2/2026</v>
+        <v>10/2/2026</v>
       </c>
       <c r="F3">
-        <v>78000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aguardiente Amarillo Media</v>
+        <v>Aguardiente Amarillo Botella</v>
       </c>
       <c r="B4" t="str">
         <v>Aguardientes</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>70000</v>
+        <v>108000</v>
       </c>
       <c r="E4" t="str">
-        <v>6/2/2026</v>
+        <v>10/2/2026</v>
       </c>
       <c r="F4">
-        <v>39000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Aguardiente Amarillo Botella</v>
+        <v>Aguardiente Ligth Caja</v>
       </c>
       <c r="B5" t="str">
         <v>Aguardientes</v>
       </c>
       <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>110000</v>
+      </c>
+      <c r="E5" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Aguardiente Ligth Media</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>56000</v>
+      </c>
+      <c r="E6" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Aguardiente Ligth Botella</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>86000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Aguardiente Ligth Cuarto</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>36000</v>
+      </c>
+      <c r="E8" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Aguardiente Cristal Caja</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100000</v>
+      </c>
+      <c r="E9" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Aguardiente Cristal Media</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>54000</v>
+      </c>
+      <c r="E10" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Aguardiente Cristal Botella</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>86000</v>
+      </c>
+      <c r="E11" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Aguardiente Cristal Cuarto</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Aguardientes</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>36000</v>
+      </c>
+      <c r="E12" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Ron 8 años Media</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>88000</v>
+      </c>
+      <c r="E13" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Ron 8 años Botella</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>156000</v>
+      </c>
+      <c r="E14" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Ron 5 años Media</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>78000</v>
+      </c>
+      <c r="E15" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Ron 5 años Botella</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>132000</v>
+      </c>
+      <c r="E16" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Ron Tradicional Caja</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>110000</v>
+      </c>
+      <c r="E17" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Ron Tradicional Media</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>68000</v>
+      </c>
+      <c r="E18" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Ron Tradicional Botella</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>104000</v>
+      </c>
+      <c r="E19" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Ron Tradicional Cuarto</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Rones</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>38000</v>
+      </c>
+      <c r="E20" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Brandy Botella</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Brandy</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>140000</v>
+      </c>
+      <c r="E21" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Brandy Media</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Brandy</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>78000</v>
+      </c>
+      <c r="E22" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Cerveza Poker</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>9000</v>
+      </c>
+      <c r="E23" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Cerveza Aguila Ligth</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>9000</v>
+      </c>
+      <c r="E24" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Cerveza Corona</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>10000</v>
+      </c>
+      <c r="E25" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Cerveza Club Colombia</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Buchanans Media</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Whisky</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>130000</v>
+      </c>
+      <c r="E27" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Black and White</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Whisky</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>74000</v>
+      </c>
+      <c r="E28" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Gatorade</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Hidratantes</v>
+      </c>
+      <c r="C29">
         <v>1000</v>
       </c>
-      <c r="D5">
-        <v>108000</v>
-      </c>
-      <c r="E5" t="str">
-        <v>7/2/2026</v>
-      </c>
-      <c r="F5">
-        <v>78000</v>
+      <c r="D29">
+        <v>6000</v>
+      </c>
+      <c r="E29" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Electrolit</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Hidratantes</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>10000</v>
+      </c>
+      <c r="E30" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Ginger Canada Dry</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Gaseosas</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>5000</v>
+      </c>
+      <c r="E31" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Agua Botella Grande</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Otros</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>5000</v>
+      </c>
+      <c r="E32" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Agua Botella Pequeña</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Otros</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>3000</v>
+      </c>
+      <c r="E33" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Soda</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Gaseosas</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>5000</v>
+      </c>
+      <c r="E34" t="str">
+        <v>10/2/2026</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>122000</v>
@@ -439,7 +439,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>70000</v>
@@ -459,7 +459,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>108000</v>
@@ -479,7 +479,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>48800</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>110000</v>
@@ -499,7 +499,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>50300</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>56000</v>
@@ -519,7 +519,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="7">
@@ -530,16 +530,16 @@
         <v>Aguardientes</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>86000</v>
+        <v>88000</v>
       </c>
       <c r="E7" t="str">
         <v>10/2/2026</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>36000</v>
@@ -559,7 +559,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="9">
@@ -570,7 +570,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>100000</v>
@@ -579,7 +579,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="10">
@@ -590,7 +590,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>54000</v>
@@ -599,7 +599,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="11">
@@ -610,7 +610,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>86000</v>
@@ -619,7 +619,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>38300</v>
       </c>
     </row>
     <row r="12">
@@ -630,7 +630,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>36000</v>
@@ -639,7 +639,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="13">
@@ -650,7 +650,7 @@
         <v>Rones</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>88000</v>
@@ -659,7 +659,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>53500</v>
       </c>
     </row>
     <row r="14">
@@ -670,7 +670,7 @@
         <v>Rones</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>156000</v>
@@ -679,7 +679,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>106400</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>Rones</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>78000</v>
@@ -699,7 +699,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>33200</v>
       </c>
     </row>
     <row r="16">
@@ -710,7 +710,7 @@
         <v>Rones</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>132000</v>
@@ -719,7 +719,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>63600</v>
       </c>
     </row>
     <row r="17">
@@ -730,7 +730,7 @@
         <v>Rones</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>110000</v>
@@ -739,7 +739,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="18">
@@ -750,7 +750,7 @@
         <v>Rones</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>68000</v>
@@ -759,7 +759,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>28600</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>Rones</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>104000</v>
@@ -779,7 +779,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>55500</v>
       </c>
     </row>
     <row r="20">
@@ -790,7 +790,7 @@
         <v>Rones</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>38000</v>
@@ -799,7 +799,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="21">
@@ -810,16 +810,16 @@
         <v>Brandy</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>140000</v>
+        <v>125000</v>
       </c>
       <c r="E21" t="str">
         <v>10/2/2026</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>Brandy</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>78000</v>
@@ -839,7 +839,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="23">
@@ -850,16 +850,16 @@
         <v>Cervezas</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D23">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="E23" t="str">
         <v>10/2/2026</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="24">
@@ -870,16 +870,16 @@
         <v>Cervezas</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="D24">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="E24" t="str">
         <v>10/2/2026</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="25">
@@ -890,16 +890,16 @@
         <v>Cervezas</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E25" t="str">
         <v>10/2/2026</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="26">
@@ -910,7 +910,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>10000</v>
@@ -919,7 +919,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="27">
@@ -930,7 +930,7 @@
         <v>Whisky</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>130000</v>
@@ -939,7 +939,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="28">
@@ -950,7 +950,7 @@
         <v>Whisky</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>74000</v>
@@ -959,7 +959,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29">
@@ -970,7 +970,7 @@
         <v>Hidratantes</v>
       </c>
       <c r="C29">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>6000</v>
@@ -979,7 +979,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="30">
@@ -990,7 +990,7 @@
         <v>Hidratantes</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>10000</v>
@@ -999,7 +999,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="31">
@@ -1010,7 +1010,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -1019,7 +1019,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="32">
@@ -1030,7 +1030,7 @@
         <v>Otros</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>5000</v>
@@ -1039,7 +1039,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="33">
@@ -1050,7 +1050,7 @@
         <v>Otros</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1059,7 +1059,7 @@
         <v>10/2/2026</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34">
@@ -1070,7 +1070,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>5000</v>
@@ -1079,12 +1079,152 @@
         <v>10/2/2026</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Cerveza Poker Lata</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C35">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>12000</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F35">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Cerveza Club Colombia Lata</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C36">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>12000</v>
+      </c>
+      <c r="E36" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F36">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Postobon y Pepsi</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Gaseosas</v>
+      </c>
+      <c r="C37">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F37">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Coca Cola</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Gaseosas</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>5000</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Cerveza Coronita</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Cervezas</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>10000</v>
+      </c>
+      <c r="E39" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F39">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Vinos</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Otros</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>60000</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F40">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Bonfiest Bomba</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Otros</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>3000</v>
+      </c>
+      <c r="E41" t="str">
+        <v>2/13/2026</v>
+      </c>
+      <c r="F41">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -510,7 +510,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>56000</v>
@@ -550,7 +550,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>36000</v>
@@ -570,7 +570,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>100000</v>
@@ -630,7 +630,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>36000</v>
@@ -650,7 +650,7 @@
         <v>Rones</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>88000</v>
@@ -690,7 +690,7 @@
         <v>Rones</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>78000</v>
@@ -790,7 +790,7 @@
         <v>Rones</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>38000</v>
@@ -850,7 +850,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C23">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>10000</v>
@@ -870,7 +870,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C24">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D24">
         <v>10000</v>
@@ -890,7 +890,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>12000</v>
@@ -910,7 +910,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>10000</v>
@@ -970,7 +970,7 @@
         <v>Hidratantes</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>6000</v>
@@ -1010,7 +1010,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -1030,7 +1030,7 @@
         <v>Otros</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>5000</v>
@@ -1070,7 +1070,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>5000</v>
@@ -1150,7 +1150,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>5000</v>
@@ -1170,7 +1170,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>10000</v>

--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>122000</v>
@@ -450,7 +450,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>70000</v>
@@ -470,7 +470,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>108000</v>
@@ -490,7 +490,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>110000</v>
@@ -510,7 +510,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>56000</v>
@@ -530,7 +530,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>88000</v>
@@ -550,7 +550,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>36000</v>
@@ -570,7 +570,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>100000</v>
@@ -590,7 +590,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>54000</v>
@@ -610,7 +610,7 @@
         <v>Aguardientes</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>86000</v>
@@ -650,7 +650,7 @@
         <v>Rones</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>88000</v>
@@ -690,7 +690,7 @@
         <v>Rones</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>78000</v>
@@ -710,7 +710,7 @@
         <v>Rones</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>132000</v>
@@ -730,7 +730,7 @@
         <v>Rones</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>110000</v>
@@ -750,7 +750,7 @@
         <v>Rones</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>68000</v>
@@ -790,7 +790,7 @@
         <v>Rones</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>38000</v>
@@ -850,7 +850,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C23">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D23">
         <v>10000</v>
@@ -870,7 +870,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C24">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>10000</v>
@@ -890,7 +890,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>12000</v>
@@ -910,7 +910,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D26">
         <v>10000</v>
@@ -970,7 +970,7 @@
         <v>Hidratantes</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>6000</v>
@@ -990,7 +990,7 @@
         <v>Hidratantes</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>10000</v>
@@ -1010,7 +1010,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>5000</v>
@@ -1030,7 +1030,7 @@
         <v>Otros</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>5000</v>
@@ -1050,7 +1050,7 @@
         <v>Otros</v>
       </c>
       <c r="C33">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1070,7 +1070,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>5000</v>
@@ -1130,7 +1130,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>5000</v>
@@ -1150,7 +1150,7 @@
         <v>Gaseosas</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D38">
         <v>5000</v>
@@ -1170,7 +1170,7 @@
         <v>Cervezas</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>10000</v>
@@ -1222,9 +1222,49 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Ventas Barra</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Ingresos Barra</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>2/22/2026</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Ventas Cafeteria</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Ingresos Cafeteria</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2/22/2026</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
   </ignoredErrors>
 </worksheet>
 </file>